--- a/DataDictionary.xlsx
+++ b/DataDictionary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17280"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15555" windowHeight="5040"/>
   </bookViews>
   <sheets>
     <sheet name="DataDictionary" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="61">
   <si>
     <t>Data Dictionary</t>
   </si>
@@ -740,10 +740,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -1391,25 +1391,29 @@
       </c>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="8"/>
+    <row r="57" spans="1:5" ht="30">
+      <c r="A57" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="B57" s="9" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="3"/>
+      <c r="E57" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="58" spans="1:5" ht="30">
       <c r="A58" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>25</v>
@@ -1418,15 +1422,13 @@
         <v>7</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="30">
-      <c r="A59" s="8" t="s">
-        <v>31</v>
-      </c>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="8"/>
       <c r="B59" s="9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>25</v>
@@ -1434,98 +1436,102 @@
       <c r="D59" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="E59" s="3"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="8"/>
       <c r="B60" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+    </row>
+    <row r="63" spans="1:5" ht="30">
+      <c r="A63" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="30">
+      <c r="A65" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D60" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E60" s="3"/>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="8"/>
-      <c r="B61" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E61" s="3"/>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-    </row>
-    <row r="64" spans="1:5" ht="30">
-      <c r="A64" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E64" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C65" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="D65" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E65" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="8"/>
+      <c r="E65" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="30">
+      <c r="A66" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="B66" s="9" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E66" s="3"/>
-    </row>
-    <row r="67" spans="1:5" ht="30">
-      <c r="A67" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="E66" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="8"/>
       <c r="B67" s="9" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>25</v>
@@ -1533,49 +1539,17 @@
       <c r="D67" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="30">
-      <c r="A68" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="8"/>
-      <c r="B69" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E69" s="3"/>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="5"/>
-      <c r="D70" s="5"/>
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="5"/>
+      <c r="D68" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A43:E43"/>
     <mergeCell ref="A52:E52"/>
-    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A62:E62"/>
     <mergeCell ref="A34:E34"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
